--- a/DB/data/DataEb.xlsx
+++ b/DB/data/DataEb.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\2mini\hello01\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\2mini\hello01\DB\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A7F0F5-F726-4FD2-8676-82411E50E6EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68B7270-5E5E-4AF2-A728-CD5B29999C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10350" yWindow="2475" windowWidth="18450" windowHeight="11385" activeTab="1" xr2:uid="{7A03FBA1-3EAD-402A-ACA8-B213540A5DFF}"/>
+    <workbookView xWindow="-4380" yWindow="750" windowWidth="23295" windowHeight="11385" activeTab="1" xr2:uid="{7A03FBA1-3EAD-402A-ACA8-B213540A5DFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -522,10 +522,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>15분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 식빵을 원 하는 굵기로 잘라준다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -542,6 +538,10 @@
   </si>
   <si>
     <t>/img/12-3.png</t>
+  </si>
+  <si>
+    <t>ge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1326,9 +1326,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB656B59-793B-4425-ACD2-E68AD4637DDD}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1664,7 +1666,7 @@
         <v>10</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>98</v>
@@ -1734,7 +1736,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>115</v>
@@ -1792,29 +1794,34 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C31" s="10" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>125</v>
       </c>
       <c r="G31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D32" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D33" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G33" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D33" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="G33" t="s">
-        <v>130</v>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C40" s="10">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
